--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_758.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_758.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32780-d78671-Reviews-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Renaissance-Newport-Beach-Hotel.h7542.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_758.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_758.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,323 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r592777833-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32780</t>
+  </si>
+  <si>
+    <t>78671</t>
+  </si>
+  <si>
+    <t>592777833</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>First stay and will be the last</t>
+  </si>
+  <si>
+    <t>I guess I should have already knew when I initially call to confirm my reservation at this hotel that my stay will go not as plan. I called to confirm my reservation, and the front desk agent was nothing but RUDE and COLD. When Yurina picked up the phone she was not only cold but condescending from the moment she opened her mouth. It made me felt like I was interrupting her time and that she was having a bad day. Here's the other part- After checking in, my room's trash bin still have trash in it from the previous stay. I called the front desk and their response was "Oh, let me send up housekeeping, was there anything else I may do for you" I was shocked.  There was no APOLOGY. I was shocked from the respond I got after reporting that there was trash left from prior guest. I still let that go. I was in a hurry to check out next morning so I didn't bother stopping by the front desk and after looking at my bill the next day, I realized I was charged more than what I booked it. I tried calling the front desk and they transfer me to accounting. Till this day (7/3/18 and I stayed on 6/23/18 , I still have NOT gotten a call back from accounting). If you want 5 stars service, you better look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>isabel l, Director of Operations at Renaissance Newport Beach Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I guess I should have already knew when I initially call to confirm my reservation at this hotel that my stay will go not as plan. I called to confirm my reservation, and the front desk agent was nothing but RUDE and COLD. When Yurina picked up the phone she was not only cold but condescending from the moment she opened her mouth. It made me felt like I was interrupting her time and that she was having a bad day. Here's the other part- After checking in, my room's trash bin still have trash in it from the previous stay. I called the front desk and their response was "Oh, let me send up housekeeping, was there anything else I may do for you" I was shocked.  There was no APOLOGY. I was shocked from the respond I got after reporting that there was trash left from prior guest. I still let that go. I was in a hurry to check out next morning so I didn't bother stopping by the front desk and after looking at my bill the next day, I realized I was charged more than what I booked it. I tried calling the front desk and they transfer me to accounting. Till this day (7/3/18 and I stayed on 6/23/18 , I still have NOT gotten a call back from accounting). If you want 5 stars service, you better look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r592245455-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>592245455</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Nicely Renovated and Comfortable</t>
+  </si>
+  <si>
+    <t>I spent 4 nights here in one of the newly renovated rooms on the 7th floor (be sure to ask for a renovated room).  Jenny at the front desk made checking in easy.  There is a frig in the room to keep your water cool, and the A/C works well, but is a bit noisy if the unit is on auto.  (If your room is on the west side, be sure to close the black-out curtains to keep the hot sun out of the room, and also lower the room temperature a couple of degrees when you go out for dinner, so it will be coming down to your sleeping temperature while you are gone.)  One of the nice improvements they made that I appreciated is a lighted filigree around the mirror in the bathroom that serves as a nightlight, so you don't have to leave the bathroom lights all on.  The bed is comfortable, and so are the pillows.
+I did not visit the restaurant, but had a Caesar-type salad at the bar one night.  I have to say I can't recommend it.  It was made with the bottom 2-3 inches of romaine lettuce, actually the part I usually cut off and throw away because it can be bitter.  The dressing was not very flavorful.  The only good thing were the white anchovies (if you like anchovies).  They do offer a nice red wine blend, called "Anyone Seen Kay."...I spent 4 nights here in one of the newly renovated rooms on the 7th floor (be sure to ask for a renovated room).  Jenny at the front desk made checking in easy.  There is a frig in the room to keep your water cool, and the A/C works well, but is a bit noisy if the unit is on auto.  (If your room is on the west side, be sure to close the black-out curtains to keep the hot sun out of the room, and also lower the room temperature a couple of degrees when you go out for dinner, so it will be coming down to your sleeping temperature while you are gone.)  One of the nice improvements they made that I appreciated is a lighted filigree around the mirror in the bathroom that serves as a nightlight, so you don't have to leave the bathroom lights all on.  The bed is comfortable, and so are the pillows.I did not visit the restaurant, but had a Caesar-type salad at the bar one night.  I have to say I can't recommend it.  It was made with the bottom 2-3 inches of romaine lettuce, actually the part I usually cut off and throw away because it can be bitter.  The dressing was not very flavorful.  The only good thing were the white anchovies (if you like anchovies).  They do offer a nice red wine blend, called "Anyone Seen Kay."The pool area is large, and the pool a good size.  The complimentary shuttle to the airport leaves every 30 minutes, and only takes a few minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I spent 4 nights here in one of the newly renovated rooms on the 7th floor (be sure to ask for a renovated room).  Jenny at the front desk made checking in easy.  There is a frig in the room to keep your water cool, and the A/C works well, but is a bit noisy if the unit is on auto.  (If your room is on the west side, be sure to close the black-out curtains to keep the hot sun out of the room, and also lower the room temperature a couple of degrees when you go out for dinner, so it will be coming down to your sleeping temperature while you are gone.)  One of the nice improvements they made that I appreciated is a lighted filigree around the mirror in the bathroom that serves as a nightlight, so you don't have to leave the bathroom lights all on.  The bed is comfortable, and so are the pillows.
+I did not visit the restaurant, but had a Caesar-type salad at the bar one night.  I have to say I can't recommend it.  It was made with the bottom 2-3 inches of romaine lettuce, actually the part I usually cut off and throw away because it can be bitter.  The dressing was not very flavorful.  The only good thing were the white anchovies (if you like anchovies).  They do offer a nice red wine blend, called "Anyone Seen Kay."...I spent 4 nights here in one of the newly renovated rooms on the 7th floor (be sure to ask for a renovated room).  Jenny at the front desk made checking in easy.  There is a frig in the room to keep your water cool, and the A/C works well, but is a bit noisy if the unit is on auto.  (If your room is on the west side, be sure to close the black-out curtains to keep the hot sun out of the room, and also lower the room temperature a couple of degrees when you go out for dinner, so it will be coming down to your sleeping temperature while you are gone.)  One of the nice improvements they made that I appreciated is a lighted filigree around the mirror in the bathroom that serves as a nightlight, so you don't have to leave the bathroom lights all on.  The bed is comfortable, and so are the pillows.I did not visit the restaurant, but had a Caesar-type salad at the bar one night.  I have to say I can't recommend it.  It was made with the bottom 2-3 inches of romaine lettuce, actually the part I usually cut off and throw away because it can be bitter.  The dressing was not very flavorful.  The only good thing were the white anchovies (if you like anchovies).  They do offer a nice red wine blend, called "Anyone Seen Kay."The pool area is large, and the pool a good size.  The complimentary shuttle to the airport leaves every 30 minutes, and only takes a few minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r590058347-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>590058347</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Comfortable hotel</t>
+  </si>
+  <si>
+    <t>We got an updated room that was very nice and comfortable. Convenient location to the SNA airport. Lobby smelled very nice. Very clean and staff was very friendly. Got a great AAA price for such a nice hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r585121483-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>585121483</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, great location, but a little overpriced</t>
+  </si>
+  <si>
+    <t>I stayed here for work for two nights in May 2018.
+I flew in early to Orange County airport, the hotel has a shuttle every 30min to the airport which was very convenient as it is only a 5min drive. The shuttle driver was very friendly and helpful in getting luggage in and out of the van. The hotel has very friendly front desk staff, bell boys, and waiters. I has allowed to check in early and I was very grateful as it gave me some time to relax before the conference started. Free wifi is a plus. 
+The room was very comfortable, very clean, a classic look, nothing very fancy, but with an elegant touch. I would say that this compared relatively to a Hilton or a Marriott, and not the more modern Westin chain. The room was ample in size, large TV, small fridge, a working desk, and lots of drawers. A bottle of water was $7,  which I felt was overpriced. They do have a small market shop at the lobby level for water, soft drinks and snacks, but I did not visit it.
+I used the bar restaurant for dinner. They have a small menu, and the prices are on the higher end, example is $14 tax for a chicken sandwich/fries. There were working on the bar, so draft beers were out of order, which was a big bummer, so I did not consume any alcohol....I stayed here for work for two nights in May 2018.I flew in early to Orange County airport, the hotel has a shuttle every 30min to the airport which was very convenient as it is only a 5min drive. The shuttle driver was very friendly and helpful in getting luggage in and out of the van. The hotel has very friendly front desk staff, bell boys, and waiters. I has allowed to check in early and I was very grateful as it gave me some time to relax before the conference started. Free wifi is a plus. The room was very comfortable, very clean, a classic look, nothing very fancy, but with an elegant touch. I would say that this compared relatively to a Hilton or a Marriott, and not the more modern Westin chain. The room was ample in size, large TV, small fridge, a working desk, and lots of drawers. A bottle of water was $7,  which I felt was overpriced. They do have a small market shop at the lobby level for water, soft drinks and snacks, but I did not visit it.I used the bar restaurant for dinner. They have a small menu, and the prices are on the higher end, example is $14 tax for a chicken sandwich/fries. There were working on the bar, so draft beers were out of order, which was a big bummer, so I did not consume any alcohol. The staff was nice, the bar was well lit with lots of TVs for sporting events, and then they had a DJ playing some beats at the end of the bar in the lounge area which was a plus.,The hotel has a couple of lounge and sitting areas, two computers, in the lobby area which makes it easy to meet to conduct business there. They do have a small managers receptions of some sort, which I did not know about, but I heard some people talking about getting a free drink. I wish the front desk would had mentioned this at check in. Although I did not park, I overheard people complain about the parking fees.Overall the hotel is great in location and accommodations, but relatively expensive compared to similar chains.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed here for work for two nights in May 2018.
+I flew in early to Orange County airport, the hotel has a shuttle every 30min to the airport which was very convenient as it is only a 5min drive. The shuttle driver was very friendly and helpful in getting luggage in and out of the van. The hotel has very friendly front desk staff, bell boys, and waiters. I has allowed to check in early and I was very grateful as it gave me some time to relax before the conference started. Free wifi is a plus. 
+The room was very comfortable, very clean, a classic look, nothing very fancy, but with an elegant touch. I would say that this compared relatively to a Hilton or a Marriott, and not the more modern Westin chain. The room was ample in size, large TV, small fridge, a working desk, and lots of drawers. A bottle of water was $7,  which I felt was overpriced. They do have a small market shop at the lobby level for water, soft drinks and snacks, but I did not visit it.
+I used the bar restaurant for dinner. They have a small menu, and the prices are on the higher end, example is $14 tax for a chicken sandwich/fries. There were working on the bar, so draft beers were out of order, which was a big bummer, so I did not consume any alcohol....I stayed here for work for two nights in May 2018.I flew in early to Orange County airport, the hotel has a shuttle every 30min to the airport which was very convenient as it is only a 5min drive. The shuttle driver was very friendly and helpful in getting luggage in and out of the van. The hotel has very friendly front desk staff, bell boys, and waiters. I has allowed to check in early and I was very grateful as it gave me some time to relax before the conference started. Free wifi is a plus. The room was very comfortable, very clean, a classic look, nothing very fancy, but with an elegant touch. I would say that this compared relatively to a Hilton or a Marriott, and not the more modern Westin chain. The room was ample in size, large TV, small fridge, a working desk, and lots of drawers. A bottle of water was $7,  which I felt was overpriced. They do have a small market shop at the lobby level for water, soft drinks and snacks, but I did not visit it.I used the bar restaurant for dinner. They have a small menu, and the prices are on the higher end, example is $14 tax for a chicken sandwich/fries. There were working on the bar, so draft beers were out of order, which was a big bummer, so I did not consume any alcohol. The staff was nice, the bar was well lit with lots of TVs for sporting events, and then they had a DJ playing some beats at the end of the bar in the lounge area which was a plus.,The hotel has a couple of lounge and sitting areas, two computers, in the lobby area which makes it easy to meet to conduct business there. They do have a small managers receptions of some sort, which I did not know about, but I heard some people talking about getting a free drink. I wish the front desk would had mentioned this at check in. Although I did not park, I overheard people complain about the parking fees.Overall the hotel is great in location and accommodations, but relatively expensive compared to similar chains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r583496352-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>583496352</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>We were visiting from Canada and were going to drive up the coast the next day so only spent one night here. I can't say much for location but the service while we were there was excellent. The additional $33 for parking is a little over the top and it's mandatory valet but we did know this prior to booking as we read some reviews. We had to ask to be put in one of the renovated rooms which I thought was unnecessary. I would probably stay here again if I ever came back to visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r581991250-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>581991250</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Beware of $33 mandatory parking fee</t>
+  </si>
+  <si>
+    <t>Just wanted everyone to know about the $33/night parking fee because I didn't see it anywhere in the website I purchased my 2 nights from about this fee. $66 is ridiculous for  parking that is right in front of the hotel that can be totally self-serviced. Extended Stay America Hotel is right next door without the parking fee and I so regretted reserving Renaissance because it really made us mad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Just wanted everyone to know about the $33/night parking fee because I didn't see it anywhere in the website I purchased my 2 nights from about this fee. $66 is ridiculous for  parking that is right in front of the hotel that can be totally self-serviced. Extended Stay America Hotel is right next door without the parking fee and I so regretted reserving Renaissance because it really made us mad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r576976992-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576976992</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Good Stay. Good Location. Would Stay here again.</t>
+  </si>
+  <si>
+    <t>They are doing renovations on this property, so it is not 100% yet, however I can see what they are trying to do. Staff is excellent, very nice, bar area and bartender good. Located right across the street from John Wayne Airport. About 20 minutes from Disney taking the highway, and 35 minutes taking the streets with light traffic. About 10 minutes away from Fashion Island and 20 minutes away from beaches. This is a Valet only hotel, 33/day, so be prepared for that. Great valet service everyone efficient and pleasant. My room was kind of dated, the beds and carpet were a little older, the bed was squeaky but comfortable. Again they are renovating, so I would not knock them for that. This looks like it was a recent acquisition by Marriott, so I know it will be up to par soon. Clean rooms, and facilities. All around good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>They are doing renovations on this property, so it is not 100% yet, however I can see what they are trying to do. Staff is excellent, very nice, bar area and bartender good. Located right across the street from John Wayne Airport. About 20 minutes from Disney taking the highway, and 35 minutes taking the streets with light traffic. About 10 minutes away from Fashion Island and 20 minutes away from beaches. This is a Valet only hotel, 33/day, so be prepared for that. Great valet service everyone efficient and pleasant. My room was kind of dated, the beds and carpet were a little older, the bed was squeaky but comfortable. Again they are renovating, so I would not knock them for that. This looks like it was a recent acquisition by Marriott, so I know it will be up to par soon. Clean rooms, and facilities. All around good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r576677384-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576677384</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Modern feel hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like the Renaissance Newport quite well. They offered points or breakfast in the hotel for being a Marriott Gold member. The room was nice and clean. The bed was comfortable.  The only think I really hated was being caught off guard by the mandatory $33  a night valet parking.  There is no other option unless you arrive without a car.  This made for an excellent rate not so excellent.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r576634421-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576634421</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel. Free shuttle from airport. $33 a day parking fee. Unfortunately this parking fee is typical for many of the hotels in the area. Staff is very nice. But operator does not always pick up. Rate we got was very good except for parking fee add on. Lacstion is not good for food access unless you have a car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r573857402-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>573857402</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Beware of black mold!!</t>
+  </si>
+  <si>
+    <t>We had to switch rooms three times due to black mold in our bathroom sinks. Maid staff either isn’t properly trained, or simply don’t care. We had to somewhat complain to get the two night exorbitant valet fee waived. Make sure to get a room in the newly renovated towers if you stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>We had to switch rooms three times due to black mold in our bathroom sinks. Maid staff either isn’t properly trained, or simply don’t care. We had to somewhat complain to get the two night exorbitant valet fee waived. Make sure to get a room in the newly renovated towers if you stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r572334949-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>572334949</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>New face lift left some scares.</t>
+  </si>
+  <si>
+    <t>Shared room with a gentleman that is Platinum Marriott card member. He requested upgraded suite because I was joining him. We got a one bedroom suite with sofa bed. The sofa bed was terrible.So I asked for a pillow top cover to improve the comfort. It took three days and four housekeeping help to get it right.Done of which spoke any English. The bright spot was the food, in the dining room and catered meals for an event I was attending. The rooms were clean but accessories left a lot to be desired, especially for an upgraded room. Could only imagine what regular rooms were like.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Shared room with a gentleman that is Platinum Marriott card member. He requested upgraded suite because I was joining him. We got a one bedroom suite with sofa bed. The sofa bed was terrible.So I asked for a pillow top cover to improve the comfort. It took three days and four housekeeping help to get it right.Done of which spoke any English. The bright spot was the food, in the dining room and catered meals for an event I was attending. The rooms were clean but accessories left a lot to be desired, especially for an upgraded room. Could only imagine what regular rooms were like.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r571560460-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>571560460</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>Renaissance remodel a huge miss.  Lobby lounge and restaurant looked better before the renovation.  The colors, rope, rattan, and wicker furniture do not depict the Orange County lifestyle.   Not 4 Stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renaissance remodel a huge miss.  Lobby lounge and restaurant looked better before the renovation.  The colors, rope, rattan, and wicker furniture do not depict the Orange County lifestyle.   Not 4 Stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r566136162-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566136162</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Phenomenal Guest Service</t>
+  </si>
+  <si>
+    <t>Hotel staff was top notch! Everyone we encountered was pleasant and helpful. The restaurant food and service was excellent. You must try the mac n' cheese, it is fantastic! My son even brought along his Xbox One, typical teenager, in his own words,"The Wi-Fi was flawless; no time lag at all!" :)  Exceptional stay! We will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Hotel staff was top notch! Everyone we encountered was pleasant and helpful. The restaurant food and service was excellent. You must try the mac n' cheese, it is fantastic! My son even brought along his Xbox One, typical teenager, in his own words,"The Wi-Fi was flawless; no time lag at all!" :)  Exceptional stay! We will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r566118533-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566118533</t>
+  </si>
+  <si>
+    <t>Great option right at JWA</t>
+  </si>
+  <si>
+    <t>I picked this hotel due to proximity to JWA.  It is situated right down the street.  It took about 20 minutes total to get from the hotel, return car and get through TSA (with PreCheck).  The room was typical but comfortable.  Views were fine.  the TV worked, and the bed was comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r564963142-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>564963142</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>I came to the Renaissance Newport Beach Hotel for a business conference and was really impressed with the facilities.  The hotel is really nice with good meeting rooms as well as hotel rooms.  The bar/restaurant area has tons of seating and there are outdoor options as well.  The room temperature control was great and the bed comfortable to sleep in.  The elevated pool area was very nice, although it's not open as late as I would like, but that's probably an effort to keep the noise level down for the guests in the nearby rooms.  The staff was extremely helpful - overall, I was very impressed with my time spent here.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I came to the Renaissance Newport Beach Hotel for a business conference and was really impressed with the facilities.  The hotel is really nice with good meeting rooms as well as hotel rooms.  The bar/restaurant area has tons of seating and there are outdoor options as well.  The room temperature control was great and the bed comfortable to sleep in.  The elevated pool area was very nice, although it's not open as late as I would like, but that's probably an effort to keep the noise level down for the guests in the nearby rooms.  The staff was extremely helpful - overall, I was very impressed with my time spent here.  More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +965,939 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10084</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_758.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_758.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Paris4Life</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>I guess I should have already knew when I initially call to confirm my reservation at this hotel that my stay will go not as plan. I called to confirm my reservation, and the front desk agent was nothing but RUDE and COLD. When Yurina picked up the phone she was not only cold but condescending from the moment she opened her mouth. It made me felt like I was interrupting her time and that she was having a bad day. Here's the other part- After checking in, my room's trash bin still have trash in it from the previous stay. I called the front desk and their response was "Oh, let me send up housekeeping, was there anything else I may do for you" I was shocked.  There was no APOLOGY. I was shocked from the respond I got after reporting that there was trash left from prior guest. I still let that go. I was in a hurry to check out next morning so I didn't bother stopping by the front desk and after looking at my bill the next day, I realized I was charged more than what I booked it. I tried calling the front desk and they transfer me to accounting. Till this day (7/3/18 and I stayed on 6/23/18 , I still have NOT gotten a call back from accounting). If you want 5 stars service, you better look elsewhere.More</t>
+  </si>
+  <si>
+    <t>betsyco2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r592245455-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
@@ -212,6 +218,9 @@
 I did not visit the restaurant, but had a Caesar-type salad at the bar one night.  I have to say I can't recommend it.  It was made with the bottom 2-3 inches of romaine lettuce, actually the part I usually cut off and throw away because it can be bitter.  The dressing was not very flavorful.  The only good thing were the white anchovies (if you like anchovies).  They do offer a nice red wine blend, called "Anyone Seen Kay."...I spent 4 nights here in one of the newly renovated rooms on the 7th floor (be sure to ask for a renovated room).  Jenny at the front desk made checking in easy.  There is a frig in the room to keep your water cool, and the A/C works well, but is a bit noisy if the unit is on auto.  (If your room is on the west side, be sure to close the black-out curtains to keep the hot sun out of the room, and also lower the room temperature a couple of degrees when you go out for dinner, so it will be coming down to your sleeping temperature while you are gone.)  One of the nice improvements they made that I appreciated is a lighted filigree around the mirror in the bathroom that serves as a nightlight, so you don't have to leave the bathroom lights all on.  The bed is comfortable, and so are the pillows.I did not visit the restaurant, but had a Caesar-type salad at the bar one night.  I have to say I can't recommend it.  It was made with the bottom 2-3 inches of romaine lettuce, actually the part I usually cut off and throw away because it can be bitter.  The dressing was not very flavorful.  The only good thing were the white anchovies (if you like anchovies).  They do offer a nice red wine blend, called "Anyone Seen Kay."The pool area is large, and the pool a good size.  The complimentary shuttle to the airport leaves every 30 minutes, and only takes a few minutes.More</t>
   </si>
   <si>
+    <t>Michael K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r590058347-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>spideymph</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r585121483-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
@@ -260,6 +272,9 @@
 I used the bar restaurant for dinner. They have a small menu, and the prices are on the higher end, example is $14 tax for a chicken sandwich/fries. There were working on the bar, so draft beers were out of order, which was a big bummer, so I did not consume any alcohol....I stayed here for work for two nights in May 2018.I flew in early to Orange County airport, the hotel has a shuttle every 30min to the airport which was very convenient as it is only a 5min drive. The shuttle driver was very friendly and helpful in getting luggage in and out of the van. The hotel has very friendly front desk staff, bell boys, and waiters. I has allowed to check in early and I was very grateful as it gave me some time to relax before the conference started. Free wifi is a plus. The room was very comfortable, very clean, a classic look, nothing very fancy, but with an elegant touch. I would say that this compared relatively to a Hilton or a Marriott, and not the more modern Westin chain. The room was ample in size, large TV, small fridge, a working desk, and lots of drawers. A bottle of water was $7,  which I felt was overpriced. They do have a small market shop at the lobby level for water, soft drinks and snacks, but I did not visit it.I used the bar restaurant for dinner. They have a small menu, and the prices are on the higher end, example is $14 tax for a chicken sandwich/fries. There were working on the bar, so draft beers were out of order, which was a big bummer, so I did not consume any alcohol. The staff was nice, the bar was well lit with lots of TVs for sporting events, and then they had a DJ playing some beats at the end of the bar in the lounge area which was a plus.,The hotel has a couple of lounge and sitting areas, two computers, in the lobby area which makes it easy to meet to conduct business there. They do have a small managers receptions of some sort, which I did not know about, but I heard some people talking about getting a free drink. I wish the front desk would had mentioned this at check in. Although I did not park, I overheard people complain about the parking fees.Overall the hotel is great in location and accommodations, but relatively expensive compared to similar chains.More</t>
   </si>
   <si>
+    <t>403TravelBug</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r583496352-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>We were visiting from Canada and were going to drive up the coast the next day so only spent one night here. I can't say much for location but the service while we were there was excellent. The additional $33 for parking is a little over the top and it's mandatory valet but we did know this prior to booking as we read some reviews. We had to ask to be put in one of the renovated rooms which I thought was unnecessary. I would probably stay here again if I ever came back to visit.</t>
   </si>
   <si>
+    <t>Supermoon1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r581991250-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -299,6 +317,9 @@
     <t>Just wanted everyone to know about the $33/night parking fee because I didn't see it anywhere in the website I purchased my 2 nights from about this fee. $66 is ridiculous for  parking that is right in front of the hotel that can be totally self-serviced. Extended Stay America Hotel is right next door without the parking fee and I so regretted reserving Renaissance because it really made us mad.More</t>
   </si>
   <si>
+    <t>EB-DFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r576976992-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -320,6 +341,9 @@
     <t>They are doing renovations on this property, so it is not 100% yet, however I can see what they are trying to do. Staff is excellent, very nice, bar area and bartender good. Located right across the street from John Wayne Airport. About 20 minutes from Disney taking the highway, and 35 minutes taking the streets with light traffic. About 10 minutes away from Fashion Island and 20 minutes away from beaches. This is a Valet only hotel, 33/day, so be prepared for that. Great valet service everyone efficient and pleasant. My room was kind of dated, the beds and carpet were a little older, the bed was squeaky but comfortable. Again they are renovating, so I would not knock them for that. This looks like it was a recent acquisition by Marriott, so I know it will be up to par soon. Clean rooms, and facilities. All around good.More</t>
   </si>
   <si>
+    <t>Darren M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r576677384-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -335,6 +359,9 @@
     <t xml:space="preserve">I like the Renaissance Newport quite well. They offered points or breakfast in the hotel for being a Marriott Gold member. The room was nice and clean. The bed was comfortable.  The only think I really hated was being caught off guard by the mandatory $33  a night valet parking.  There is no other option unless you arrive without a car.  This made for an excellent rate not so excellent.  </t>
   </si>
   <si>
+    <t>Steve Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r576634421-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
     <t>Nice hotel. Free shuttle from airport. $33 a day parking fee. Unfortunately this parking fee is typical for many of the hotels in the area. Staff is very nice. But operator does not always pick up. Rate we got was very good except for parking fee add on. Lacstion is not good for food access unless you have a car.</t>
   </si>
   <si>
+    <t>B-Taw_73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r573857402-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -374,6 +404,9 @@
     <t>We had to switch rooms three times due to black mold in our bathroom sinks. Maid staff either isn’t properly trained, or simply don’t care. We had to somewhat complain to get the two night exorbitant valet fee waived. Make sure to get a room in the newly renovated towers if you stay there.More</t>
   </si>
   <si>
+    <t>Arsen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r572334949-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -398,6 +431,9 @@
     <t>Shared room with a gentleman that is Platinum Marriott card member. He requested upgraded suite because I was joining him. We got a one bedroom suite with sofa bed. The sofa bed was terrible.So I asked for a pillow top cover to improve the comfort. It took three days and four housekeeping help to get it right.Done of which spoke any English. The bright spot was the food, in the dining room and catered meals for an event I was attending. The rooms were clean but accessories left a lot to be desired, especially for an upgraded room. Could only imagine what regular rooms were like.More</t>
   </si>
   <si>
+    <t>sherrirjaff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r571560460-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -416,6 +452,9 @@
     <t>Renaissance remodel a huge miss.  Lobby lounge and restaurant looked better before the renovation.  The colors, rope, rattan, and wicker furniture do not depict the Orange County lifestyle.   Not 4 Stars.More</t>
   </si>
   <si>
+    <t>_mcpeterson2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r566136162-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -437,6 +476,9 @@
     <t>Hotel staff was top notch! Everyone we encountered was pleasant and helpful. The restaurant food and service was excellent. You must try the mac n' cheese, it is fantastic! My son even brought along his Xbox One, typical teenager, in his own words,"The Wi-Fi was flawless; no time lag at all!" :)  Exceptional stay! We will definitely return.More</t>
   </si>
   <si>
+    <t>DCTerry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r566118533-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
   </si>
   <si>
     <t>I picked this hotel due to proximity to JWA.  It is situated right down the street.  It took about 20 minutes total to get from the hotel, return car and get through TSA (with PreCheck).  The room was typical but comfortable.  Views were fine.  the TV worked, and the bed was comfortable.</t>
+  </si>
+  <si>
+    <t>ViktorTrue</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32780-d78671-r564963142-Renaissance_Newport_Beach_Hotel-Newport_Beach_California.html</t>
@@ -969,43 +1014,47 @@
       <c r="A2" t="n">
         <v>10084</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1021,56 +1070,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10084</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1088,56 +1141,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10084</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1151,50 +1208,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10084</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1212,50 +1273,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10084</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1275,50 +1340,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10084</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1336,56 +1405,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10084</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1405,50 +1478,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10084</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1462,50 +1539,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10084</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1519,50 +1600,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10084</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1574,56 +1659,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10084</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1641,56 +1730,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10084</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1708,56 +1801,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10084</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -1775,56 +1872,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10084</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1842,41 +1943,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10084</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -1895,7 +2000,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
